--- a/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_YO.xlsx
+++ b/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_YO.xlsx
@@ -1,23 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Ech_raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798B3B28-2C26-47E8-9CBC-0CF2C76C0CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TOT" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="D1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="D2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="D3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="S1" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="S2" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="S3" sheetId="7" r:id="rId10"/>
+    <sheet name="TOT" sheetId="1" r:id="rId1"/>
+    <sheet name="D1" sheetId="2" r:id="rId2"/>
+    <sheet name="D2" sheetId="3" r:id="rId3"/>
+    <sheet name="D3" sheetId="4" r:id="rId4"/>
+    <sheet name="S1" sheetId="5" r:id="rId5"/>
+    <sheet name="S2" sheetId="6" r:id="rId6"/>
+    <sheet name="S3" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="286">
   <si>
     <t>transect</t>
   </si>
@@ -872,30 +894,36 @@
   </si>
   <si>
     <t>Ophiuroidea</t>
+  </si>
+  <si>
+    <t>SIZE (cm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -905,67 +933,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1155,20 +1161,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K274"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1252,10 +1263,10 @@
         <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1278,10 +1289,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1304,10 +1315,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1356,10 +1367,10 @@
         <v>24</v>
       </c>
       <c r="K7" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1408,10 +1419,10 @@
         <v>24</v>
       </c>
       <c r="K9" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1434,10 +1445,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1460,10 +1471,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1486,10 +1497,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1515,7 +1526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1642,10 +1653,10 @@
         <v>17</v>
       </c>
       <c r="K18" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1749,7 +1760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1798,10 +1809,10 @@
         <v>20</v>
       </c>
       <c r="K24" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1824,10 +1835,10 @@
         <v>17</v>
       </c>
       <c r="K25" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1850,10 +1861,10 @@
         <v>17</v>
       </c>
       <c r="K26" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1902,10 +1913,10 @@
         <v>17</v>
       </c>
       <c r="K28" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1928,10 +1939,10 @@
         <v>17</v>
       </c>
       <c r="K29" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1954,10 +1965,10 @@
         <v>17</v>
       </c>
       <c r="K30" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1980,10 +1991,10 @@
         <v>17</v>
       </c>
       <c r="K31" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +2020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -2061,7 +2072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -2084,10 +2095,10 @@
         <v>17</v>
       </c>
       <c r="K35" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -2139,7 +2150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -2162,10 +2173,10 @@
         <v>17</v>
       </c>
       <c r="K38" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2188,10 +2199,10 @@
         <v>17</v>
       </c>
       <c r="K39" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -2214,10 +2225,10 @@
         <v>24</v>
       </c>
       <c r="K40" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -2243,7 +2254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -2269,7 +2280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -2295,7 +2306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -2318,10 +2329,10 @@
         <v>17</v>
       </c>
       <c r="K44" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -2344,10 +2355,10 @@
         <v>17</v>
       </c>
       <c r="K45" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -2370,10 +2381,10 @@
         <v>17</v>
       </c>
       <c r="K46" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -2422,10 +2433,10 @@
         <v>17</v>
       </c>
       <c r="K48" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
@@ -2451,7 +2462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -2477,7 +2488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
@@ -2503,7 +2514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
@@ -2526,10 +2537,10 @@
         <v>17</v>
       </c>
       <c r="K52" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>67</v>
       </c>
@@ -2552,10 +2563,10 @@
         <v>17</v>
       </c>
       <c r="K53" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>67</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
@@ -2633,7 +2644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
@@ -2659,7 +2670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -2682,10 +2693,10 @@
         <v>24</v>
       </c>
       <c r="K58" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
@@ -2708,10 +2719,10 @@
         <v>17</v>
       </c>
       <c r="K59" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
@@ -2763,7 +2774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
@@ -2789,7 +2800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2841,7 +2852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>75</v>
       </c>
@@ -2867,7 +2878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -2919,7 +2930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
@@ -2945,7 +2956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>75</v>
       </c>
@@ -2971,7 +2982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -3020,10 +3031,10 @@
         <v>17</v>
       </c>
       <c r="K71" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -3046,10 +3057,10 @@
         <v>17</v>
       </c>
       <c r="K72" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
@@ -3075,7 +3086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -3101,7 +3112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -3124,10 +3135,10 @@
         <v>17</v>
       </c>
       <c r="K75" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3150,10 +3161,10 @@
         <v>17</v>
       </c>
       <c r="K76" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
@@ -3228,10 +3239,10 @@
         <v>17</v>
       </c>
       <c r="K79" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -3257,7 +3268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
@@ -3280,10 +3291,10 @@
         <v>17</v>
       </c>
       <c r="K81" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>75</v>
       </c>
@@ -3306,10 +3317,10 @@
         <v>17</v>
       </c>
       <c r="K82" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>75</v>
       </c>
@@ -3335,7 +3346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>75</v>
       </c>
@@ -3358,10 +3369,10 @@
         <v>17</v>
       </c>
       <c r="K84" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>75</v>
       </c>
@@ -3384,10 +3395,10 @@
         <v>17</v>
       </c>
       <c r="K85" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>75</v>
       </c>
@@ -3413,7 +3424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>75</v>
       </c>
@@ -3439,7 +3450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>75</v>
       </c>
@@ -3465,7 +3476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>75</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>75</v>
       </c>
@@ -3517,7 +3528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>75</v>
       </c>
@@ -3540,10 +3551,10 @@
         <v>17</v>
       </c>
       <c r="K91" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>75</v>
       </c>
@@ -3569,7 +3580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>75</v>
       </c>
@@ -3595,7 +3606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>75</v>
       </c>
@@ -3618,10 +3629,10 @@
         <v>17</v>
       </c>
       <c r="K94" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>75</v>
       </c>
@@ -3647,7 +3658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>75</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>75</v>
       </c>
@@ -3696,10 +3707,10 @@
         <v>17</v>
       </c>
       <c r="K97" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>75</v>
       </c>
@@ -3725,7 +3736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>75</v>
       </c>
@@ -3748,10 +3759,10 @@
         <v>17</v>
       </c>
       <c r="K99" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>75</v>
       </c>
@@ -3774,10 +3785,10 @@
         <v>17</v>
       </c>
       <c r="K100" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>75</v>
       </c>
@@ -3800,10 +3811,10 @@
         <v>17</v>
       </c>
       <c r="K101" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>75</v>
       </c>
@@ -3829,7 +3840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>75</v>
       </c>
@@ -3852,10 +3863,10 @@
         <v>17</v>
       </c>
       <c r="K103" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>75</v>
       </c>
@@ -3881,7 +3892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>75</v>
       </c>
@@ -3907,7 +3918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>75</v>
       </c>
@@ -3930,10 +3941,10 @@
         <v>17</v>
       </c>
       <c r="K106" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>75</v>
       </c>
@@ -3956,10 +3967,10 @@
         <v>17</v>
       </c>
       <c r="K107" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>75</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>75</v>
       </c>
@@ -4008,10 +4019,10 @@
         <v>17</v>
       </c>
       <c r="K109" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>75</v>
       </c>
@@ -4034,10 +4045,10 @@
         <v>17</v>
       </c>
       <c r="K110" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>75</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>75</v>
       </c>
@@ -4086,10 +4097,10 @@
         <v>17</v>
       </c>
       <c r="K112" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>75</v>
       </c>
@@ -4115,7 +4126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>75</v>
       </c>
@@ -4138,10 +4149,10 @@
         <v>122</v>
       </c>
       <c r="K114" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>75</v>
       </c>
@@ -4167,7 +4178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>75</v>
       </c>
@@ -4190,10 +4201,10 @@
         <v>17</v>
       </c>
       <c r="K116" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>75</v>
       </c>
@@ -4219,7 +4230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>75</v>
       </c>
@@ -4245,7 +4256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>75</v>
       </c>
@@ -4268,10 +4279,10 @@
         <v>17</v>
       </c>
       <c r="K119" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>75</v>
       </c>
@@ -4294,10 +4305,10 @@
         <v>17</v>
       </c>
       <c r="K120" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>75</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>75</v>
       </c>
@@ -4349,7 +4360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>75</v>
       </c>
@@ -4375,7 +4386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>75</v>
       </c>
@@ -4401,7 +4412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>75</v>
       </c>
@@ -4424,10 +4435,10 @@
         <v>17</v>
       </c>
       <c r="K125" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>75</v>
       </c>
@@ -4450,10 +4461,10 @@
         <v>17</v>
       </c>
       <c r="K126" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>75</v>
       </c>
@@ -4479,7 +4490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>75</v>
       </c>
@@ -4505,7 +4516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>75</v>
       </c>
@@ -4528,10 +4539,10 @@
         <v>17</v>
       </c>
       <c r="K129" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>75</v>
       </c>
@@ -4557,7 +4568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>75</v>
       </c>
@@ -4583,7 +4594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>75</v>
       </c>
@@ -4609,7 +4620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>75</v>
       </c>
@@ -4635,7 +4646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>75</v>
       </c>
@@ -4661,7 +4672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>75</v>
       </c>
@@ -4687,7 +4698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>75</v>
       </c>
@@ -4710,10 +4721,10 @@
         <v>17</v>
       </c>
       <c r="K136" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>75</v>
       </c>
@@ -4739,7 +4750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>75</v>
       </c>
@@ -4762,10 +4773,10 @@
         <v>17</v>
       </c>
       <c r="K138" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>75</v>
       </c>
@@ -4788,10 +4799,10 @@
         <v>17</v>
       </c>
       <c r="K139" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>75</v>
       </c>
@@ -4814,10 +4825,10 @@
         <v>17</v>
       </c>
       <c r="K140" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>75</v>
       </c>
@@ -4840,10 +4851,10 @@
         <v>17</v>
       </c>
       <c r="K141" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>75</v>
       </c>
@@ -4869,7 +4880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
@@ -4895,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>75</v>
       </c>
@@ -4921,7 +4932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>75</v>
       </c>
@@ -4947,7 +4958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
@@ -4970,10 +4981,10 @@
         <v>17</v>
       </c>
       <c r="K146" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4999,7 +5010,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
@@ -5022,10 +5033,10 @@
         <v>20</v>
       </c>
       <c r="K148" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>146</v>
       </c>
@@ -5051,7 +5062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>146</v>
       </c>
@@ -5074,10 +5085,10 @@
         <v>20</v>
       </c>
       <c r="K150" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
@@ -5103,7 +5114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>146</v>
       </c>
@@ -5129,7 +5140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>146</v>
       </c>
@@ -5152,10 +5163,10 @@
         <v>17</v>
       </c>
       <c r="K153" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>146</v>
       </c>
@@ -5181,7 +5192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>146</v>
       </c>
@@ -5207,7 +5218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>146</v>
       </c>
@@ -5233,7 +5244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>146</v>
       </c>
@@ -5256,10 +5267,10 @@
         <v>17</v>
       </c>
       <c r="K157" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>146</v>
       </c>
@@ -5285,7 +5296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>146</v>
       </c>
@@ -5308,10 +5319,10 @@
         <v>17</v>
       </c>
       <c r="K159" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>146</v>
       </c>
@@ -5337,7 +5348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>146</v>
       </c>
@@ -5363,7 +5374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>146</v>
       </c>
@@ -5389,7 +5400,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>146</v>
       </c>
@@ -5415,7 +5426,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>146</v>
       </c>
@@ -5441,7 +5452,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>146</v>
       </c>
@@ -5464,10 +5475,10 @@
         <v>24</v>
       </c>
       <c r="K165" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>146</v>
       </c>
@@ -5493,7 +5504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>146</v>
       </c>
@@ -5519,7 +5530,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>146</v>
       </c>
@@ -5542,10 +5553,10 @@
         <v>24</v>
       </c>
       <c r="K168" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>146</v>
       </c>
@@ -5571,7 +5582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>146</v>
       </c>
@@ -5597,7 +5608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>146</v>
       </c>
@@ -5620,10 +5631,10 @@
         <v>17</v>
       </c>
       <c r="K171" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>146</v>
       </c>
@@ -5649,7 +5660,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>146</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>146</v>
       </c>
@@ -5698,10 +5709,10 @@
         <v>24</v>
       </c>
       <c r="K174" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>146</v>
       </c>
@@ -5724,10 +5735,10 @@
         <v>24</v>
       </c>
       <c r="K175" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>146</v>
       </c>
@@ -5753,7 +5764,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>146</v>
       </c>
@@ -5779,7 +5790,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>146</v>
       </c>
@@ -5802,10 +5813,10 @@
         <v>17</v>
       </c>
       <c r="K178" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>146</v>
       </c>
@@ -5828,10 +5839,10 @@
         <v>17</v>
       </c>
       <c r="K179" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>146</v>
       </c>
@@ -5854,10 +5865,10 @@
         <v>17</v>
       </c>
       <c r="K180" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>146</v>
       </c>
@@ -5883,7 +5894,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>146</v>
       </c>
@@ -5909,7 +5920,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>146</v>
       </c>
@@ -5935,7 +5946,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>146</v>
       </c>
@@ -5958,10 +5969,10 @@
         <v>24</v>
       </c>
       <c r="K184" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>146</v>
       </c>
@@ -5984,10 +5995,10 @@
         <v>20</v>
       </c>
       <c r="K185" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>146</v>
       </c>
@@ -6010,10 +6021,10 @@
         <v>24</v>
       </c>
       <c r="K186" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>146</v>
       </c>
@@ -6036,10 +6047,10 @@
         <v>24</v>
       </c>
       <c r="K187" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>146</v>
       </c>
@@ -6062,10 +6073,10 @@
         <v>24</v>
       </c>
       <c r="K188" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>146</v>
       </c>
@@ -6091,7 +6102,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>146</v>
       </c>
@@ -6117,7 +6128,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>196</v>
       </c>
@@ -6140,10 +6151,10 @@
         <v>20</v>
       </c>
       <c r="K191" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>196</v>
       </c>
@@ -6169,7 +6180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>196</v>
       </c>
@@ -6195,7 +6206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>196</v>
       </c>
@@ -6221,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>196</v>
       </c>
@@ -6247,7 +6258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
@@ -6273,7 +6284,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -6296,10 +6307,10 @@
         <v>24</v>
       </c>
       <c r="K197" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
@@ -6325,7 +6336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>196</v>
       </c>
@@ -6351,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>196</v>
       </c>
@@ -6377,7 +6388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>196</v>
       </c>
@@ -6400,10 +6411,10 @@
         <v>24</v>
       </c>
       <c r="K201" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>196</v>
       </c>
@@ -6429,7 +6440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>196</v>
       </c>
@@ -6455,7 +6466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>196</v>
       </c>
@@ -6481,7 +6492,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>196</v>
       </c>
@@ -6504,10 +6515,10 @@
         <v>24</v>
       </c>
       <c r="K205" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>196</v>
       </c>
@@ -6530,10 +6541,10 @@
         <v>17</v>
       </c>
       <c r="K206" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>196</v>
       </c>
@@ -6556,10 +6567,10 @@
         <v>20</v>
       </c>
       <c r="K207" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>196</v>
       </c>
@@ -6582,10 +6593,10 @@
         <v>20</v>
       </c>
       <c r="K208" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>196</v>
       </c>
@@ -6611,7 +6622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>196</v>
       </c>
@@ -6637,7 +6648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>196</v>
       </c>
@@ -6660,10 +6671,10 @@
         <v>24</v>
       </c>
       <c r="K211" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>196</v>
       </c>
@@ -6686,10 +6697,10 @@
         <v>24</v>
       </c>
       <c r="K212" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>196</v>
       </c>
@@ -6712,10 +6723,10 @@
         <v>24</v>
       </c>
       <c r="K213" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>196</v>
       </c>
@@ -6741,7 +6752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>196</v>
       </c>
@@ -6764,10 +6775,10 @@
         <v>24</v>
       </c>
       <c r="K215" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>196</v>
       </c>
@@ -6793,7 +6804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>196</v>
       </c>
@@ -6819,7 +6830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>196</v>
       </c>
@@ -6845,7 +6856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>196</v>
       </c>
@@ -6868,10 +6879,10 @@
         <v>24</v>
       </c>
       <c r="K219" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>196</v>
       </c>
@@ -6894,10 +6905,10 @@
         <v>20</v>
       </c>
       <c r="K220" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>196</v>
       </c>
@@ -6923,7 +6934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>227</v>
       </c>
@@ -6949,7 +6960,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>227</v>
       </c>
@@ -6975,7 +6986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>227</v>
       </c>
@@ -6998,10 +7009,10 @@
         <v>20</v>
       </c>
       <c r="K224" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>227</v>
       </c>
@@ -7024,10 +7035,10 @@
         <v>24</v>
       </c>
       <c r="K225" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>227</v>
       </c>
@@ -7053,7 +7064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>227</v>
       </c>
@@ -7079,7 +7090,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -7102,10 +7113,10 @@
         <v>17</v>
       </c>
       <c r="K228" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -7131,7 +7142,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>227</v>
       </c>
@@ -7154,10 +7165,10 @@
         <v>17</v>
       </c>
       <c r="K230" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>227</v>
       </c>
@@ -7180,10 +7191,10 @@
         <v>24</v>
       </c>
       <c r="K231" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>227</v>
       </c>
@@ -7206,10 +7217,10 @@
         <v>20</v>
       </c>
       <c r="K232" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>227</v>
       </c>
@@ -7235,7 +7246,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>227</v>
       </c>
@@ -7261,7 +7272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>227</v>
       </c>
@@ -7287,7 +7298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>227</v>
       </c>
@@ -7313,7 +7324,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>227</v>
       </c>
@@ -7336,10 +7347,10 @@
         <v>24</v>
       </c>
       <c r="K237" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>227</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>227</v>
       </c>
@@ -7391,7 +7402,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>227</v>
       </c>
@@ -7417,7 +7428,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>227</v>
       </c>
@@ -7443,7 +7454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>227</v>
       </c>
@@ -7466,10 +7477,10 @@
         <v>24</v>
       </c>
       <c r="K242" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>227</v>
       </c>
@@ -7495,7 +7506,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>227</v>
       </c>
@@ -7518,10 +7529,10 @@
         <v>17</v>
       </c>
       <c r="K244" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>227</v>
       </c>
@@ -7547,7 +7558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>227</v>
       </c>
@@ -7573,7 +7584,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>227</v>
       </c>
@@ -7596,10 +7607,10 @@
         <v>20</v>
       </c>
       <c r="K247" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>227</v>
       </c>
@@ -7625,7 +7636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>227</v>
       </c>
@@ -7651,7 +7662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>227</v>
       </c>
@@ -7677,7 +7688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>227</v>
       </c>
@@ -7703,7 +7714,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>227</v>
       </c>
@@ -7729,7 +7740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>227</v>
       </c>
@@ -7752,10 +7763,10 @@
         <v>24</v>
       </c>
       <c r="K253" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>227</v>
       </c>
@@ -7781,7 +7792,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>227</v>
       </c>
@@ -7807,7 +7818,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>227</v>
       </c>
@@ -7833,7 +7844,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>227</v>
       </c>
@@ -7859,7 +7870,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>227</v>
       </c>
@@ -7885,7 +7896,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>227</v>
       </c>
@@ -7911,7 +7922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>227</v>
       </c>
@@ -7937,7 +7948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>227</v>
       </c>
@@ -7963,7 +7974,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>227</v>
       </c>
@@ -7986,10 +7997,10 @@
         <v>20</v>
       </c>
       <c r="K262" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>227</v>
       </c>
@@ -8012,10 +8023,10 @@
         <v>24</v>
       </c>
       <c r="K263" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>227</v>
       </c>
@@ -8041,7 +8052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>227</v>
       </c>
@@ -8067,7 +8078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>227</v>
       </c>
@@ -8093,7 +8104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>227</v>
       </c>
@@ -8116,10 +8127,10 @@
         <v>17</v>
       </c>
       <c r="K267" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>227</v>
       </c>
@@ -8142,10 +8153,10 @@
         <v>24</v>
       </c>
       <c r="K268" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>227</v>
       </c>
@@ -8168,10 +8179,10 @@
         <v>24</v>
       </c>
       <c r="K269" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>227</v>
       </c>
@@ -8194,10 +8205,10 @@
         <v>20</v>
       </c>
       <c r="K270" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>227</v>
       </c>
@@ -8223,7 +8234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>227</v>
       </c>
@@ -8249,7 +8260,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>227</v>
       </c>
@@ -8275,7 +8286,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>227</v>
       </c>
@@ -8302,24 +8313,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -8342,7 +8354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -8365,7 +8377,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -8376,13 +8388,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -8393,13 +8405,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -8410,13 +8422,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8433,7 +8445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -8444,13 +8456,13 @@
         <v>24</v>
       </c>
       <c r="G7" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -8463,16 +8475,16 @@
       <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="2">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -8483,10 +8495,10 @@
         <v>24</v>
       </c>
       <c r="G9" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -8497,10 +8509,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -8511,10 +8523,10 @@
         <v>24</v>
       </c>
       <c r="G11" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -8525,10 +8537,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -8542,7 +8554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -8556,7 +8568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -8570,7 +8582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -8584,7 +8596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -8598,7 +8610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -8609,10 +8621,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -8626,7 +8638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -8640,7 +8652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -8654,7 +8666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -8668,7 +8680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -8682,7 +8694,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -8693,10 +8705,10 @@
         <v>20</v>
       </c>
       <c r="G24" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -8707,10 +8719,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -8721,10 +8733,10 @@
         <v>17</v>
       </c>
       <c r="G26" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -8738,7 +8750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -8749,10 +8761,10 @@
         <v>17</v>
       </c>
       <c r="G28" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -8763,10 +8775,10 @@
         <v>17</v>
       </c>
       <c r="G29" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -8777,10 +8789,10 @@
         <v>17</v>
       </c>
       <c r="G30" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -8791,10 +8803,10 @@
         <v>17</v>
       </c>
       <c r="G31" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -8808,7 +8820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -8822,7 +8834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -8836,7 +8848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -8847,10 +8859,10 @@
         <v>17</v>
       </c>
       <c r="G35" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -8864,7 +8876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -8878,7 +8890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -8889,10 +8901,10 @@
         <v>17</v>
       </c>
       <c r="G38" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -8903,10 +8915,10 @@
         <v>17</v>
       </c>
       <c r="G39" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -8917,10 +8929,10 @@
         <v>24</v>
       </c>
       <c r="G40" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -8934,7 +8946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -8948,7 +8960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -8962,7 +8974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -8973,10 +8985,10 @@
         <v>17</v>
       </c>
       <c r="G44" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>61</v>
       </c>
@@ -8987,10 +8999,10 @@
         <v>17</v>
       </c>
       <c r="G45" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
@@ -9001,10 +9013,10 @@
         <v>17</v>
       </c>
       <c r="G46" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
@@ -9018,7 +9030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -9029,10 +9041,10 @@
         <v>17</v>
       </c>
       <c r="G48" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -9046,7 +9058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -9061,24 +9073,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -9101,7 +9114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -9124,7 +9137,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -9135,13 +9148,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -9152,13 +9165,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -9175,7 +9188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -9192,7 +9205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -9209,7 +9222,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -9222,16 +9235,16 @@
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="2">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -9242,10 +9255,10 @@
         <v>24</v>
       </c>
       <c r="G9" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -9256,10 +9269,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -9273,7 +9286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -9287,7 +9300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
@@ -9301,7 +9314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
@@ -9315,7 +9328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -9330,24 +9343,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -9370,7 +9384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -9393,7 +9407,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -9410,7 +9424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
@@ -9427,7 +9441,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -9444,7 +9458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -9461,7 +9475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -9478,7 +9492,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -9489,18 +9503,18 @@
         <v>17</v>
       </c>
       <c r="G8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="2">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -9511,10 +9525,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -9528,7 +9542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
@@ -9542,7 +9556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -9553,10 +9567,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -9567,10 +9581,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
@@ -9584,7 +9598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -9598,7 +9612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -9609,10 +9623,10 @@
         <v>17</v>
       </c>
       <c r="G16" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -9626,7 +9640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>91</v>
       </c>
@@ -9637,10 +9651,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -9651,10 +9665,10 @@
         <v>17</v>
       </c>
       <c r="G19" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
@@ -9668,7 +9682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
@@ -9679,10 +9693,10 @@
         <v>17</v>
       </c>
       <c r="G21" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>95</v>
       </c>
@@ -9693,10 +9707,10 @@
         <v>17</v>
       </c>
       <c r="G22" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
@@ -9710,7 +9724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>97</v>
       </c>
@@ -9724,7 +9738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
@@ -9738,7 +9752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
@@ -9752,7 +9766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
@@ -9766,7 +9780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>100</v>
       </c>
@@ -9777,10 +9791,10 @@
         <v>17</v>
       </c>
       <c r="G28" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
@@ -9794,7 +9808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>102</v>
       </c>
@@ -9808,7 +9822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -9819,10 +9833,10 @@
         <v>17</v>
       </c>
       <c r="G31" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
@@ -9836,7 +9850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
@@ -9850,7 +9864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -9861,10 +9875,10 @@
         <v>17</v>
       </c>
       <c r="G34" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -9878,7 +9892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
@@ -9889,10 +9903,10 @@
         <v>17</v>
       </c>
       <c r="G36" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -9903,10 +9917,10 @@
         <v>17</v>
       </c>
       <c r="G37" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -9917,10 +9931,10 @@
         <v>17</v>
       </c>
       <c r="G38" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
@@ -9934,7 +9948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -9945,10 +9959,10 @@
         <v>17</v>
       </c>
       <c r="G40" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>111</v>
       </c>
@@ -9962,7 +9976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -9976,7 +9990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
@@ -9987,10 +10001,10 @@
         <v>17</v>
       </c>
       <c r="G43" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>114</v>
       </c>
@@ -10001,10 +10015,10 @@
         <v>17</v>
       </c>
       <c r="G44" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>115</v>
       </c>
@@ -10018,7 +10032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>116</v>
       </c>
@@ -10029,10 +10043,10 @@
         <v>17</v>
       </c>
       <c r="G46" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>117</v>
       </c>
@@ -10043,10 +10057,10 @@
         <v>17</v>
       </c>
       <c r="G47" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>118</v>
       </c>
@@ -10060,7 +10074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
@@ -10071,10 +10085,10 @@
         <v>17</v>
       </c>
       <c r="G49" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>120</v>
       </c>
@@ -10088,7 +10102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
@@ -10099,10 +10113,10 @@
         <v>122</v>
       </c>
       <c r="G51" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>123</v>
       </c>
@@ -10116,7 +10130,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
@@ -10127,10 +10141,10 @@
         <v>17</v>
       </c>
       <c r="G53" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
@@ -10144,7 +10158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>125</v>
       </c>
@@ -10158,7 +10172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>126</v>
       </c>
@@ -10169,10 +10183,10 @@
         <v>17</v>
       </c>
       <c r="G56" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>126</v>
       </c>
@@ -10183,10 +10197,10 @@
         <v>17</v>
       </c>
       <c r="G57" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
@@ -10200,7 +10214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
@@ -10214,7 +10228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
@@ -10228,7 +10242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -10242,7 +10256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
@@ -10253,10 +10267,10 @@
         <v>17</v>
       </c>
       <c r="G62" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>130</v>
       </c>
@@ -10267,10 +10281,10 @@
         <v>17</v>
       </c>
       <c r="G63" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>131</v>
       </c>
@@ -10284,7 +10298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
@@ -10298,7 +10312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
@@ -10309,10 +10323,10 @@
         <v>17</v>
       </c>
       <c r="G66" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -10326,7 +10340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>135</v>
       </c>
@@ -10340,7 +10354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -10354,7 +10368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>137</v>
       </c>
@@ -10368,7 +10382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>137</v>
       </c>
@@ -10382,7 +10396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
@@ -10396,7 +10410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>139</v>
       </c>
@@ -10407,10 +10421,10 @@
         <v>17</v>
       </c>
       <c r="G73" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>139</v>
       </c>
@@ -10424,7 +10438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>140</v>
       </c>
@@ -10435,10 +10449,10 @@
         <v>17</v>
       </c>
       <c r="G75" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>141</v>
       </c>
@@ -10449,10 +10463,10 @@
         <v>17</v>
       </c>
       <c r="G76" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>141</v>
       </c>
@@ -10463,10 +10477,10 @@
         <v>17</v>
       </c>
       <c r="G77" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -10477,10 +10491,10 @@
         <v>17</v>
       </c>
       <c r="G78" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
@@ -10494,7 +10508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>143</v>
       </c>
@@ -10508,7 +10522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>144</v>
       </c>
@@ -10522,7 +10536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>145</v>
       </c>
@@ -10537,24 +10551,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -10577,7 +10592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -10588,7 +10603,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -10600,7 +10615,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -10617,7 +10632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -10628,13 +10643,13 @@
         <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
@@ -10648,7 +10663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
@@ -10659,10 +10674,10 @@
         <v>20</v>
       </c>
       <c r="G6" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>156</v>
       </c>
@@ -10676,7 +10691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>157</v>
       </c>
@@ -10690,7 +10705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>158</v>
       </c>
@@ -10701,10 +10716,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>159</v>
       </c>
@@ -10718,7 +10733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>160</v>
       </c>
@@ -10732,7 +10747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>161</v>
       </c>
@@ -10746,7 +10761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>161</v>
       </c>
@@ -10757,10 +10772,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>162</v>
       </c>
@@ -10774,7 +10789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>162</v>
       </c>
@@ -10785,10 +10800,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>163</v>
       </c>
@@ -10802,7 +10817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>164</v>
       </c>
@@ -10816,7 +10831,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>166</v>
       </c>
@@ -10830,7 +10845,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>167</v>
       </c>
@@ -10844,7 +10859,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>168</v>
       </c>
@@ -10858,7 +10873,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>169</v>
       </c>
@@ -10869,10 +10884,10 @@
         <v>24</v>
       </c>
       <c r="G21" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>170</v>
       </c>
@@ -10886,7 +10901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>171</v>
       </c>
@@ -10900,7 +10915,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>172</v>
       </c>
@@ -10911,10 +10926,10 @@
         <v>24</v>
       </c>
       <c r="G24" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>174</v>
       </c>
@@ -10928,7 +10943,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>175</v>
       </c>
@@ -10942,7 +10957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>176</v>
       </c>
@@ -10953,10 +10968,10 @@
         <v>17</v>
       </c>
       <c r="G27" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>177</v>
       </c>
@@ -10970,7 +10985,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>178</v>
       </c>
@@ -10984,7 +10999,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>179</v>
       </c>
@@ -10995,10 +11010,10 @@
         <v>24</v>
       </c>
       <c r="G30" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>180</v>
       </c>
@@ -11009,10 +11024,10 @@
         <v>24</v>
       </c>
       <c r="G31" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>181</v>
       </c>
@@ -11026,7 +11041,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>182</v>
       </c>
@@ -11040,7 +11055,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>183</v>
       </c>
@@ -11051,10 +11066,10 @@
         <v>17</v>
       </c>
       <c r="G34" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>184</v>
       </c>
@@ -11065,10 +11080,10 @@
         <v>17</v>
       </c>
       <c r="G35" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>185</v>
       </c>
@@ -11079,10 +11094,10 @@
         <v>17</v>
       </c>
       <c r="G36" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
@@ -11096,7 +11111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>187</v>
       </c>
@@ -11110,7 +11125,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>188</v>
       </c>
@@ -11124,7 +11139,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>189</v>
       </c>
@@ -11135,10 +11150,10 @@
         <v>24</v>
       </c>
       <c r="G40" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>190</v>
       </c>
@@ -11149,10 +11164,10 @@
         <v>20</v>
       </c>
       <c r="G41" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>191</v>
       </c>
@@ -11163,10 +11178,10 @@
         <v>24</v>
       </c>
       <c r="G42" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>192</v>
       </c>
@@ -11177,10 +11192,10 @@
         <v>24</v>
       </c>
       <c r="G43" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>193</v>
       </c>
@@ -11191,10 +11206,10 @@
         <v>24</v>
       </c>
       <c r="G44" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>194</v>
       </c>
@@ -11208,7 +11223,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>195</v>
       </c>
@@ -11223,24 +11238,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -11263,7 +11279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>197</v>
       </c>
@@ -11274,7 +11290,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -11286,7 +11302,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>199</v>
       </c>
@@ -11303,7 +11319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
@@ -11320,7 +11336,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>201</v>
       </c>
@@ -11337,7 +11353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>202</v>
       </c>
@@ -11354,7 +11370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>203</v>
       </c>
@@ -11371,7 +11387,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>204</v>
       </c>
@@ -11382,10 +11398,10 @@
         <v>24</v>
       </c>
       <c r="G8" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>205</v>
       </c>
@@ -11399,7 +11415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>206</v>
       </c>
@@ -11413,7 +11429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>207</v>
       </c>
@@ -11427,7 +11443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>208</v>
       </c>
@@ -11438,10 +11454,10 @@
         <v>24</v>
       </c>
       <c r="G12" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>209</v>
       </c>
@@ -11455,7 +11471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>210</v>
       </c>
@@ -11469,7 +11485,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>211</v>
       </c>
@@ -11483,7 +11499,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>212</v>
       </c>
@@ -11494,10 +11510,10 @@
         <v>24</v>
       </c>
       <c r="G16" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>213</v>
       </c>
@@ -11508,10 +11524,10 @@
         <v>17</v>
       </c>
       <c r="G17" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>214</v>
       </c>
@@ -11522,10 +11538,10 @@
         <v>20</v>
       </c>
       <c r="G18" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>214</v>
       </c>
@@ -11536,10 +11552,10 @@
         <v>20</v>
       </c>
       <c r="G19" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>214</v>
       </c>
@@ -11553,7 +11569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>215</v>
       </c>
@@ -11567,7 +11583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>216</v>
       </c>
@@ -11578,10 +11594,10 @@
         <v>24</v>
       </c>
       <c r="G22" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>217</v>
       </c>
@@ -11592,10 +11608,10 @@
         <v>24</v>
       </c>
       <c r="G23" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>218</v>
       </c>
@@ -11606,10 +11622,10 @@
         <v>24</v>
       </c>
       <c r="G24" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>219</v>
       </c>
@@ -11623,7 +11639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>220</v>
       </c>
@@ -11634,10 +11650,10 @@
         <v>24</v>
       </c>
       <c r="G26" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>221</v>
       </c>
@@ -11651,7 +11667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>222</v>
       </c>
@@ -11665,7 +11681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>223</v>
       </c>
@@ -11679,7 +11695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>224</v>
       </c>
@@ -11690,10 +11706,10 @@
         <v>24</v>
       </c>
       <c r="G30" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>225</v>
       </c>
@@ -11704,10 +11720,10 @@
         <v>20</v>
       </c>
       <c r="G31" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>226</v>
       </c>
@@ -11722,24 +11738,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -11762,7 +11779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
@@ -11785,7 +11802,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>229</v>
       </c>
@@ -11802,7 +11819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>230</v>
       </c>
@@ -11813,13 +11830,13 @@
         <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>231</v>
       </c>
@@ -11830,13 +11847,13 @@
         <v>24</v>
       </c>
       <c r="G5" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>232</v>
       </c>
@@ -11853,7 +11870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>233</v>
       </c>
@@ -11870,7 +11887,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>234</v>
       </c>
@@ -11881,18 +11898,18 @@
         <v>17</v>
       </c>
       <c r="G8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="2">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>235</v>
       </c>
@@ -11906,7 +11923,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>236</v>
       </c>
@@ -11917,10 +11934,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>237</v>
       </c>
@@ -11931,10 +11948,10 @@
         <v>24</v>
       </c>
       <c r="G11" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>238</v>
       </c>
@@ -11945,10 +11962,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>239</v>
       </c>
@@ -11962,7 +11979,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>240</v>
       </c>
@@ -11976,7 +11993,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>241</v>
       </c>
@@ -11990,7 +12007,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>242</v>
       </c>
@@ -12004,7 +12021,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>243</v>
       </c>
@@ -12015,10 +12032,10 @@
         <v>24</v>
       </c>
       <c r="G17" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>244</v>
       </c>
@@ -12032,7 +12049,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>245</v>
       </c>
@@ -12046,7 +12063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>246</v>
       </c>
@@ -12060,7 +12077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>247</v>
       </c>
@@ -12074,7 +12091,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>248</v>
       </c>
@@ -12085,10 +12102,10 @@
         <v>24</v>
       </c>
       <c r="G22" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>249</v>
       </c>
@@ -12102,7 +12119,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>250</v>
       </c>
@@ -12113,10 +12130,10 @@
         <v>17</v>
       </c>
       <c r="G24" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
@@ -12130,7 +12147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>252</v>
       </c>
@@ -12144,7 +12161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>253</v>
       </c>
@@ -12155,10 +12172,10 @@
         <v>20</v>
       </c>
       <c r="G27" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>254</v>
       </c>
@@ -12172,7 +12189,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>255</v>
       </c>
@@ -12186,7 +12203,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>256</v>
       </c>
@@ -12200,7 +12217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>257</v>
       </c>
@@ -12214,7 +12231,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>258</v>
       </c>
@@ -12228,7 +12245,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>259</v>
       </c>
@@ -12239,10 +12256,10 @@
         <v>24</v>
       </c>
       <c r="G33" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>260</v>
       </c>
@@ -12256,7 +12273,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>261</v>
       </c>
@@ -12270,7 +12287,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -12284,7 +12301,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>263</v>
       </c>
@@ -12298,7 +12315,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>264</v>
       </c>
@@ -12312,7 +12329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>265</v>
       </c>
@@ -12326,7 +12343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>266</v>
       </c>
@@ -12340,7 +12357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>267</v>
       </c>
@@ -12354,7 +12371,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>268</v>
       </c>
@@ -12365,10 +12382,10 @@
         <v>20</v>
       </c>
       <c r="G42" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>269</v>
       </c>
@@ -12379,10 +12396,10 @@
         <v>24</v>
       </c>
       <c r="G43" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>270</v>
       </c>
@@ -12396,7 +12413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>271</v>
       </c>
@@ -12410,7 +12427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>272</v>
       </c>
@@ -12424,7 +12441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>273</v>
       </c>
@@ -12435,10 +12452,10 @@
         <v>17</v>
       </c>
       <c r="G47" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>274</v>
       </c>
@@ -12449,10 +12466,10 @@
         <v>24</v>
       </c>
       <c r="G48" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>275</v>
       </c>
@@ -12463,10 +12480,10 @@
         <v>24</v>
       </c>
       <c r="G49" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>276</v>
       </c>
@@ -12477,10 +12494,10 @@
         <v>20</v>
       </c>
       <c r="G50" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>277</v>
       </c>
@@ -12494,7 +12511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>278</v>
       </c>
@@ -12508,7 +12525,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>279</v>
       </c>
@@ -12522,7 +12539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>280</v>
       </c>
@@ -12537,6 +12554,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>